--- a/public/static/excel/template/补录管理模板.xlsx
+++ b/public/static/excel/template/补录管理模板.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="16920"/>
+    <workbookView windowHeight="14600"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -49,7 +49,7 @@
     <t>大饭堂</t>
   </si>
   <si>
-    <t>2019-11-04午餐</t>
+    <t>午餐</t>
   </si>
   <si>
     <t>补扣</t>
@@ -61,9 +61,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -71,13 +71,6 @@
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -98,15 +91,97 @@
     <font>
       <u/>
       <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
       <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -120,22 +195,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -148,71 +210,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -227,18 +227,30 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -251,7 +263,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -263,7 +323,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -275,139 +359,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -445,37 +445,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -495,11 +469,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -518,158 +498,181 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -994,13 +997,14 @@
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6" outlineLevelRow="1"/>
   <cols>
     <col min="1" max="1" width="26.9375" customWidth="1"/>
     <col min="4" max="4" width="18.3035714285714" customWidth="1"/>
+    <col min="6" max="6" width="21.5714285714286" customWidth="1"/>
     <col min="8" max="8" width="37.0446428571429" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1049,7 +1053,10 @@
       <c r="E2" t="s">
         <v>10</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="1">
+        <v>43773</v>
+      </c>
+      <c r="G2" t="s">
         <v>11</v>
       </c>
       <c r="H2" t="s">

--- a/public/static/excel/template/补录管理模板.xlsx
+++ b/public/static/excel/template/补录管理模板.xlsx
@@ -4,25 +4,19 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="14600"/>
+    <workbookView windowHeight="16920"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="144525" calcCompleted="0" calcOnSave="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13">
-  <si>
-    <t>员工编号</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11">
   <si>
     <t>姓名</t>
-  </si>
-  <si>
-    <t>卡号</t>
   </si>
   <si>
     <t>手机号码</t>
@@ -60,10 +54,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -75,7 +69,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -91,37 +92,29 @@
     <font>
       <u/>
       <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
       <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -135,6 +128,22 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
@@ -142,6 +151,15 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -158,30 +176,21 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -202,21 +211,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -227,187 +221,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -445,11 +439,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -484,17 +484,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -513,8 +507,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -523,148 +517,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="26" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -994,21 +988,20 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:I2"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6" outlineLevelRow="1"/>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6" outlineLevelRow="1" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="26.9375" customWidth="1"/>
-    <col min="4" max="4" width="18.3035714285714" customWidth="1"/>
-    <col min="6" max="6" width="21.5714285714286" customWidth="1"/>
-    <col min="8" max="8" width="37.0446428571429" customWidth="1"/>
+    <col min="2" max="2" width="18.3035714285714" customWidth="1"/>
+    <col min="4" max="4" width="21.5714285714286" customWidth="1"/>
+    <col min="6" max="6" width="37.0446428571429" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:7">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1030,39 +1023,27 @@
       <c r="G1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="B2">
+        <v>18956225230</v>
+      </c>
+      <c r="C2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:9">
-      <c r="A2">
-        <v>123</v>
-      </c>
-      <c r="B2" t="s">
+      <c r="D2" s="1">
+        <v>43773</v>
+      </c>
+      <c r="E2" t="s">
         <v>9</v>
       </c>
-      <c r="C2">
-        <v>123456</v>
-      </c>
-      <c r="D2">
-        <v>18956225230</v>
-      </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="1">
-        <v>43773</v>
-      </c>
-      <c r="G2" t="s">
-        <v>11</v>
-      </c>
-      <c r="H2" t="s">
-        <v>12</v>
-      </c>
-      <c r="I2">
+      <c r="G2">
         <v>8</v>
       </c>
     </row>

--- a/public/static/excel/template/补录管理模板.xlsx
+++ b/public/static/excel/template/补录管理模板.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13">
   <si>
     <t>姓名</t>
   </si>
@@ -34,6 +34,9 @@
     <t>补录类型（补扣/补充）</t>
   </si>
   <si>
+    <t>账户</t>
+  </si>
+  <si>
     <t>金额</t>
   </si>
   <si>
@@ -47,6 +50,9 @@
   </si>
   <si>
     <t>补扣</t>
+  </si>
+  <si>
+    <t>个人账户</t>
   </si>
 </sst>
 </file>
@@ -55,9 +61,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -69,14 +75,106 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -90,31 +188,23 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -127,90 +217,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -221,187 +227,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -419,22 +425,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -449,21 +440,6 @@
         <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -484,11 +460,41 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -517,124 +523,124 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="26" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -643,22 +649,22 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -988,20 +994,20 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6" outlineLevelRow="1" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6" outlineLevelRow="1" outlineLevelCol="7"/>
   <cols>
     <col min="2" max="2" width="18.3035714285714" customWidth="1"/>
     <col min="4" max="4" width="21.5714285714286" customWidth="1"/>
-    <col min="6" max="6" width="37.0446428571429" customWidth="1"/>
+    <col min="6" max="7" width="37.0446428571429" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:8">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1023,27 +1029,33 @@
       <c r="G1" t="s">
         <v>6</v>
       </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:8">
       <c r="A2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B2">
         <v>18956225230</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D2" s="1">
         <v>43773</v>
       </c>
       <c r="E2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G2">
+        <v>11</v>
+      </c>
+      <c r="G2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H2">
         <v>8</v>
       </c>
     </row>

--- a/public/static/excel/template/补录管理模板.xlsx
+++ b/public/static/excel/template/补录管理模板.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11">
   <si>
     <t>姓名</t>
   </si>
@@ -34,9 +34,6 @@
     <t>补录类型（补扣/补充）</t>
   </si>
   <si>
-    <t>账户</t>
-  </si>
-  <si>
     <t>金额</t>
   </si>
   <si>
@@ -51,19 +48,16 @@
   <si>
     <t>补扣</t>
   </si>
-  <si>
-    <t>个人账户</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -74,6 +68,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
@@ -81,46 +90,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="11"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -134,77 +113,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -217,6 +128,89 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -227,19 +221,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -251,67 +383,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -323,91 +401,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -430,47 +424,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -492,20 +450,41 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -518,153 +497,168 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -994,20 +988,20 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6" outlineLevelRow="1" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6" outlineLevelRow="1" outlineLevelCol="6"/>
   <cols>
     <col min="2" max="2" width="18.3035714285714" customWidth="1"/>
     <col min="4" max="4" width="21.5714285714286" customWidth="1"/>
-    <col min="6" max="7" width="37.0446428571429" customWidth="1"/>
+    <col min="6" max="6" width="37.0446428571429" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:7">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1029,33 +1023,27 @@
       <c r="G1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" t="s">
         <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="A2" t="s">
-        <v>8</v>
       </c>
       <c r="B2">
         <v>18956225230</v>
       </c>
       <c r="C2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D2" s="1">
         <v>43773</v>
       </c>
       <c r="E2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" t="s">
         <v>10</v>
       </c>
-      <c r="F2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" t="s">
-        <v>12</v>
-      </c>
-      <c r="H2">
+      <c r="G2">
         <v>8</v>
       </c>
     </row>

--- a/public/static/excel/template/补录管理模板.xlsx
+++ b/public/static/excel/template/补录管理模板.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="16920"/>
+    <workbookView windowHeight="14720"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12">
   <si>
     <t>姓名</t>
   </si>
@@ -35,6 +35,9 @@
   </si>
   <si>
     <t>金额</t>
+  </si>
+  <si>
+    <t>备注</t>
   </si>
   <si>
     <t>张三</t>
@@ -55,9 +58,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -68,6 +71,28 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
@@ -77,6 +102,52 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -84,7 +155,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -98,8 +176,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -113,93 +192,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -221,25 +224,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -257,151 +398,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -420,6 +423,30 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -460,21 +487,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
@@ -485,15 +497,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -517,148 +520,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -988,20 +991,20 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K10" sqref="K10"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6" outlineLevelRow="1" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6" outlineLevelRow="1" outlineLevelCol="7"/>
   <cols>
     <col min="2" max="2" width="18.3035714285714" customWidth="1"/>
     <col min="4" max="4" width="21.5714285714286" customWidth="1"/>
     <col min="6" max="6" width="37.0446428571429" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:8">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1022,26 +1025,29 @@
       </c>
       <c r="G1" t="s">
         <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B2">
         <v>18956225230</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D2" s="1">
         <v>43773</v>
       </c>
       <c r="E2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G2">
         <v>8</v>
